--- a/input/stopcodon/stopcodon_table.xlsx
+++ b/input/stopcodon/stopcodon_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wen-Juan/Dropbox (Amherst College)/Amherst_postdoc/github/Haploidselection_and_dosagecompensation_in_Microbotryum/input/stopcodon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89782FD2-1440-B048-900D-A3937A9D8876}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB7111D-7075-6447-90C0-F50CB4B91695}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="440" windowWidth="40140" windowHeight="20880" xr2:uid="{DCADF938-8ACE-9640-A5A8-5C036B92735A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="18">
   <si>
     <t>compartment</t>
   </si>
@@ -74,6 +74,12 @@
   <si>
     <t>NRR</t>
   </si>
+  <si>
+    <t>Protein length ratio of not equal to euqal to 1</t>
+  </si>
+  <si>
+    <t>CDS length ratio of not equal to euqal to 1</t>
+  </si>
 </sst>
 </file>
 
@@ -108,10 +114,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -232,7 +241,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$13</c:f>
+              <c:f>Sheet1!$C$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -253,7 +262,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$14:$B$21</c:f>
+              <c:f>Sheet1!$B$15:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -285,7 +294,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$C$21</c:f>
+              <c:f>Sheet1!$C$15:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -327,7 +336,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$13</c:f>
+              <c:f>Sheet1!$D$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -350,7 +359,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$14:$B$21</c:f>
+              <c:f>Sheet1!$B$15:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -382,7 +391,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$14:$D$21</c:f>
+              <c:f>Sheet1!$D$15:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -797,7 +806,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$29</c:f>
+              <c:f>Sheet1!$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -818,7 +827,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$30:$B$32</c:f>
+              <c:f>Sheet1!$B$31:$B$33</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -835,7 +844,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$C$32</c:f>
+              <c:f>Sheet1!$C$31:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -862,7 +871,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$29</c:f>
+              <c:f>Sheet1!$D$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -885,7 +894,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$30:$B$32</c:f>
+              <c:f>Sheet1!$B$31:$B$33</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -902,7 +911,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$30:$D$32</c:f>
+              <c:f>Sheet1!$D$31:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1206,6 +1215,1084 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ratio of CDS length difference among genomic compartment</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0930995121454694E-2"/>
+          <c:y val="0.11774343122102011"/>
+          <c:w val="0.80089413338568138"/>
+          <c:h val="0.81363750319463546"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ratiode</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF7E79"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$65:$B$72</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Autosome</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PAR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Green</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Red</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Orange</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Black</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Blue</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Purple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$65:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.2711864406779662E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94871794871794868</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7691-754A-BB09-64C91A6B413C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rationonde</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$65:$B$72</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Autosome</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PAR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Green</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Red</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Orange</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Black</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Blue</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Purple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$65:$D$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0683485648088556E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95412844036697253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7691-754A-BB09-64C91A6B413C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1445642383"/>
+        <c:axId val="1443126223"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1445642383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1443126223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1443126223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Proportion among total genes in given compartment</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.0332409972299155E-3"/>
+              <c:y val="0.14498904131828882"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1445642383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.89367185057546472"/>
+          <c:y val="0.48197787486765081"/>
+          <c:w val="0.10632814942453522"/>
+          <c:h val="0.11011329769345843"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ratio of CDS length difference among genomic compartment</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17652448680244903"/>
+          <c:y val="3.6418816388467376E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10053592930170105"/>
+          <c:y val="0.12591735537190085"/>
+          <c:w val="0.78270183094583057"/>
+          <c:h val="0.80069994143294076"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ratiode</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF7E79"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$65:$F$67</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Autosome</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PAR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NRR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$65:$G$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.2711864406779662E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94117647058823528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D779-B947-B6A7-8B591F26764B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rationonde</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$65:$F$67</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Autosome</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PAR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NRR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$65:$H$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0683485648088556E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95412844036697253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91608391608391604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D779-B947-B6A7-8B591F26764B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1380087199"/>
+        <c:axId val="1376485727"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1380087199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1376485727"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1376485727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Proportion among total genes in given compartment</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7330861909175162E-2"/>
+              <c:y val="0.12910494306572831"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1380087199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.87953062401027493"/>
+          <c:y val="0.48794455651721214"/>
+          <c:w val="0.1204693759897251"/>
+          <c:h val="0.11345512766898069"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1286,6 +2373,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1790,6 +2957,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2298,13 +4471,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2334,13 +4507,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2361,6 +4534,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC8120D4-2265-EE4E-A817-95E6607F4337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA8B90EF-A38C-CE45-B755-0DC7254464DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2666,10 +4911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D226073A-C444-B648-83C1-00604B15CA14}">
-  <dimension ref="B1:H38"/>
+  <dimension ref="B1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:H38"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="T68" sqref="T68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2682,495 +4927,989 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>232</v>
-      </c>
-      <c r="E2" s="1">
-        <f>C2/(C2+D2)</f>
-        <v>1.6949152542372881E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>93</v>
-      </c>
-      <c r="G2" s="1">
-        <v>7676</v>
-      </c>
-      <c r="H2" s="1">
-        <f>F2/(F2+G2)</f>
-        <v>1.1970652593641395E-2</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E10" si="0">C3/(C3+D3)</f>
-        <v>0</v>
+        <f>C3/(C3+D3)</f>
+        <v>1.6949152542372881E-2</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="G3" s="1">
-        <v>107</v>
+        <v>7676</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H9" si="1">F3/(F3+G3)</f>
-        <v>1.834862385321101E-2</v>
+        <f>F3/(F3+G3)</f>
+        <v>1.1970652593641395E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E11" si="0">C4/(C4+D4)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="H4:H10" si="1">F4/(F4+G4)</f>
+        <v>1.834862385321101E-2</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>0.32</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <f>C7/(C7+D7)</f>
-        <v>0.64102564102564108</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>0.5625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
+        <f>C8/(C8+D8)</f>
+        <v>0.64102564102564108</v>
       </c>
       <c r="F8" s="1">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="1">
-        <f>SUM(C4:C9)</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
+        <f>SUM(C5:C10)</f>
         <v>35</v>
       </c>
-      <c r="D10" s="1">
-        <f>SUM(D4:D9)</f>
+      <c r="D11" s="1">
+        <f>SUM(D5:D10)</f>
         <v>16</v>
       </c>
-      <c r="E10" s="1">
-        <f>C10/(C10+D10)</f>
+      <c r="E11" s="1">
+        <f>C11/(C11+D11)</f>
         <v>0.68627450980392157</v>
       </c>
-      <c r="F10" s="1">
-        <f t="shared" ref="E10:G10" si="2">SUM(F4:F9)</f>
+      <c r="F11" s="1">
+        <f t="shared" ref="F11:G11" si="2">SUM(F5:F10)</f>
         <v>73</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G11" s="1">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="H10" s="1">
-        <f>F10/(F10+G10)</f>
+      <c r="H11" s="1">
+        <f>F11/(F11+G11)</f>
         <v>0.51048951048951052</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>1.6949152542372881E-2</v>
-      </c>
-      <c r="D14">
-        <v>1.1970652593641395E-2</v>
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.6949152542372881E-2</v>
       </c>
       <c r="D15">
-        <v>1.834862385321101E-2</v>
+        <v>1.1970652593641395E-2</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.33333333333333331</v>
+        <v>1.834862385321101E-2</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0.32</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>0.64102564102564108</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.5625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>0.8</v>
+        <v>0.64102564102564108</v>
       </c>
       <c r="D20">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>0.8</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>0.42857142857142855</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>1.6949152542372881E-2</v>
-      </c>
-      <c r="D30">
-        <v>1.1970652593641395E-2</v>
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1.6949152542372881E-2</v>
       </c>
       <c r="D31">
-        <v>1.834862385321101E-2</v>
+        <v>1.1970652593641395E-2</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1.834862385321101E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>15</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>0.68627450980392157</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>0.51048951048951052</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="1">
-        <v>4</v>
-      </c>
-      <c r="D36" s="1">
-        <v>232</v>
-      </c>
-      <c r="E36" s="1">
-        <f>C36/(C36+D36)</f>
-        <v>1.6949152542372881E-2</v>
-      </c>
-      <c r="F36" s="1">
-        <v>93</v>
-      </c>
-      <c r="G36" s="1">
-        <v>7676</v>
-      </c>
-      <c r="H36" s="1">
-        <f>F36/(F36+G36)</f>
-        <v>1.1970652593641395E-2</v>
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" ref="E37" si="3">C37/(C37+D37)</f>
-        <v>0</v>
+        <f>C37/(C37+D37)</f>
+        <v>1.6949152542372881E-2</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="G37" s="1">
-        <v>107</v>
+        <v>7676</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" ref="H37" si="4">F37/(F37+G37)</f>
-        <v>1.834862385321101E-2</v>
+        <f>F37/(F37+G37)</f>
+        <v>1.1970652593641395E-2</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" ref="E38" si="3">C38/(C38+D38)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>107</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" ref="H38" si="4">F38/(F38+G38)</f>
+        <v>1.834862385321101E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C39" s="1">
         <v>35</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D39" s="1">
         <v>16</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E39" s="1">
         <v>0.68627450980392157</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F39" s="1">
         <v>73</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G39" s="1">
         <v>70</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H39" s="1">
         <v>0.51048951048951052</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>233</v>
+      </c>
+      <c r="E49">
+        <f>C49/(C49+D49)</f>
+        <v>1.2711864406779662E-2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>83</v>
+      </c>
+      <c r="G49" s="1">
+        <v>7686</v>
+      </c>
+      <c r="H49" s="1">
+        <f>F49/(F49+G49)</f>
+        <v>1.0683485648088556E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <f>C50/(C50+D50)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F50" s="1">
+        <v>104</v>
+      </c>
+      <c r="G50" s="1">
+        <v>5</v>
+      </c>
+      <c r="H50" s="1">
+        <f>F50/(F50+G50)</f>
+        <v>0.95412844036697253</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51:E56" si="5">C51/(C51+D51)</f>
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" ref="H51:H56" si="6">F51/(F51+G51)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>24</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="6"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1">
+        <v>37</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="5"/>
+        <v>0.94871794871794868</v>
+      </c>
+      <c r="F54" s="1">
+        <v>88</v>
+      </c>
+      <c r="G54" s="1">
+        <v>8</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="6"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="F55" s="1">
+        <v>10</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>4</v>
+      </c>
+      <c r="G56" s="1">
+        <v>3</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="6"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>233</v>
+      </c>
+      <c r="E60">
+        <v>1.2711864406779662E-2</v>
+      </c>
+      <c r="F60">
+        <v>83</v>
+      </c>
+      <c r="G60">
+        <v>7686</v>
+      </c>
+      <c r="H60">
+        <v>1.0683485648088556E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F61">
+        <v>104</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+      <c r="H61">
+        <v>0.95412844036697253</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="1">
+        <f>SUM(C51:C56)</f>
+        <v>48</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" ref="D62:H62" si="7">SUM(D51:D56)</f>
+        <v>3</v>
+      </c>
+      <c r="E62" s="1">
+        <f>C62/(C62+D62)</f>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="7"/>
+        <v>131</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="H62" s="1">
+        <f>F62/(F62+G62)</f>
+        <v>0.91608391608391604</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>1.2711864406779662E-2</v>
+      </c>
+      <c r="D65">
+        <v>1.0683485648088556E-2</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>1.2711864406779662E-2</v>
+      </c>
+      <c r="H65">
+        <v>1.0683485648088556E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D66">
+        <v>0.95412844036697253</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H66">
+        <v>0.95412844036697253</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="H67">
+        <v>0.91608391608391604</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>0.94871794871794868</v>
+      </c>
+      <c r="D70">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>0.8</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0.5714285714285714</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B58:H58"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>

--- a/input/stopcodon/stopcodon_table.xlsx
+++ b/input/stopcodon/stopcodon_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wen-Juan/Dropbox (Amherst College)/Amherst_postdoc/github/Haploidselection_and_dosagecompensation_in_Microbotryum/input/stopcodon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB7111D-7075-6447-90C0-F50CB4B91695}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0449C725-AAAB-ED4B-B270-5ED4BB461CDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="440" windowWidth="40140" windowHeight="20880" xr2:uid="{DCADF938-8ACE-9640-A5A8-5C036B92735A}"/>
+    <workbookView xWindow="820" yWindow="440" windowWidth="40140" windowHeight="17720" xr2:uid="{DCADF938-8ACE-9640-A5A8-5C036B92735A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1296,9 +1296,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0930995121454694E-2"/>
-          <c:y val="0.11774343122102011"/>
-          <c:w val="0.80089413338568138"/>
+          <c:x val="8.2057863885026797E-2"/>
+          <c:y val="0.12062946677119905"/>
+          <c:w val="0.7849225523828155"/>
           <c:h val="0.81363750319463546"/>
         </c:manualLayout>
       </c:layout>
@@ -1369,10 +1369,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.2711864406779662E-2</c:v>
+                  <c:v>1.6949152542372881E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -1384,10 +1384,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94871794871794868</c:v>
+                  <c:v>0.87179487179487181</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -1466,28 +1466,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.0683485648088556E-2</c:v>
+                  <c:v>3.0505856609602266E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95412844036697253</c:v>
+                  <c:v>8.2568807339449546E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91666666666666663</c:v>
+                  <c:v>0.64583333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.8571428571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1701,10 +1701,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.89367185057546472"/>
-          <c:y val="0.48197787486765081"/>
-          <c:w val="0.10632814942453522"/>
-          <c:h val="0.11011329769345843"/>
+          <c:x val="0.86705251905623604"/>
+          <c:y val="0.48774994034836555"/>
+          <c:w val="0.12229974358795211"/>
+          <c:h val="0.10788878662894412"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1927,13 +1927,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.2711864406779662E-2</c:v>
+                  <c:v>1.6949152542372881E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0.90196078431372551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1994,13 +1994,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0683485648088556E-2</c:v>
+                  <c:v>3.0505856609602266E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95412844036697253</c:v>
+                  <c:v>8.2568807339449546E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91608391608391604</c:v>
+                  <c:v>0.60839160839160844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4547,10 +4547,10 @@
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4578,15 +4578,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4913,8 +4913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D226073A-C444-B648-83C1-00604B15CA14}">
   <dimension ref="B1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="T68" sqref="T68"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="W69" sqref="W69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5465,24 +5465,24 @@
         <v>2</v>
       </c>
       <c r="C49" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" s="1">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E49">
         <f>C49/(C49+D49)</f>
-        <v>1.2711864406779662E-2</v>
+        <v>1.6949152542372881E-2</v>
       </c>
       <c r="F49" s="1">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="G49" s="1">
-        <v>7686</v>
+        <v>7532</v>
       </c>
       <c r="H49" s="1">
         <f>F49/(F49+G49)</f>
-        <v>1.0683485648088556E-2</v>
+        <v>3.0505856609602266E-2</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
@@ -5490,24 +5490,24 @@
         <v>3</v>
       </c>
       <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
         <v>5</v>
       </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
       <c r="E50">
-        <f>C50/(C50+D50)</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" ref="E50:E56" si="5">C50/(C50+D50)</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F50" s="1">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="G50" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H50" s="1">
-        <f>F50/(F50+G50)</f>
-        <v>0.95412844036697253</v>
+        <f t="shared" ref="H50:H56" si="6">F50/(F50+G50)</f>
+        <v>8.2568807339449546E-2</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
@@ -5521,18 +5521,18 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51:E56" si="5">C51/(C51+D51)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F51" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" ref="H51:H56" si="6">F51/(F51+G51)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
@@ -5550,14 +5550,14 @@
         <v>1</v>
       </c>
       <c r="F52" s="1">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G52" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" si="6"/>
-        <v>0.96</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
@@ -5590,24 +5590,24 @@
         <v>7</v>
       </c>
       <c r="C54" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D54" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E54">
         <f t="shared" si="5"/>
-        <v>0.94871794871794868</v>
+        <v>0.87179487179487181</v>
       </c>
       <c r="F54" s="1">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="G54" s="1">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H54" s="1">
         <f t="shared" si="6"/>
-        <v>0.91666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
@@ -5615,24 +5615,24 @@
         <v>8</v>
       </c>
       <c r="C55" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <f t="shared" si="5"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G55" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
@@ -5650,14 +5650,14 @@
         <v>1</v>
       </c>
       <c r="F56" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G56" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H56" s="1">
         <f t="shared" si="6"/>
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
@@ -5699,22 +5699,22 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E60">
-        <v>1.2711864406779662E-2</v>
+        <v>1.6949152542372881E-2</v>
       </c>
       <c r="F60">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="G60">
-        <v>7686</v>
+        <v>7532</v>
       </c>
       <c r="H60">
-        <v>1.0683485648088556E-2</v>
+        <v>3.0505856609602266E-2</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
@@ -5722,22 +5722,22 @@
         <v>3</v>
       </c>
       <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
         <v>5</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
       <c r="E61">
-        <v>0.83333333333333337</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F61">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="G61">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H61">
-        <v>0.95412844036697253</v>
+        <v>8.2568807339449546E-2</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
@@ -5746,27 +5746,27 @@
       </c>
       <c r="C62" s="1">
         <f>SUM(C51:C56)</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" ref="D62:H62" si="7">SUM(D51:D56)</f>
-        <v>3</v>
+        <f>SUM(D51:D56)</f>
+        <v>5</v>
       </c>
       <c r="E62" s="1">
         <f>C62/(C62+D62)</f>
-        <v>0.94117647058823528</v>
+        <v>0.90196078431372551</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="7"/>
-        <v>131</v>
+        <f>SUM(F51:F56)</f>
+        <v>87</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="7"/>
-        <v>12</v>
+        <f>SUM(G51:G56)</f>
+        <v>56</v>
       </c>
       <c r="H62" s="1">
         <f>F62/(F62+G62)</f>
-        <v>0.91608391608391604</v>
+        <v>0.60839160839160844</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
@@ -5794,19 +5794,19 @@
         <v>2</v>
       </c>
       <c r="C65">
-        <v>1.2711864406779662E-2</v>
+        <v>1.6949152542372881E-2</v>
       </c>
       <c r="D65">
-        <v>1.0683485648088556E-2</v>
+        <v>3.0505856609602266E-2</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G65">
-        <v>1.2711864406779662E-2</v>
+        <v>1.6949152542372881E-2</v>
       </c>
       <c r="H65">
-        <v>1.0683485648088556E-2</v>
+        <v>3.0505856609602266E-2</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
@@ -5814,19 +5814,19 @@
         <v>3</v>
       </c>
       <c r="C66">
-        <v>0.83333333333333337</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D66">
-        <v>0.95412844036697253</v>
+        <v>8.2568807339449546E-2</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G66">
-        <v>0.83333333333333337</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H66">
-        <v>0.95412844036697253</v>
+        <v>8.2568807339449546E-2</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
@@ -5837,16 +5837,16 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G67">
-        <v>0.94117647058823528</v>
+        <v>0.90196078431372551</v>
       </c>
       <c r="H67">
-        <v>0.91608391608391604</v>
+        <v>0.60839160839160844</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>0.96</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
@@ -5876,10 +5876,10 @@
         <v>7</v>
       </c>
       <c r="C70">
-        <v>0.94871794871794868</v>
+        <v>0.87179487179487181</v>
       </c>
       <c r="D70">
-        <v>0.91666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
@@ -5887,10 +5887,10 @@
         <v>8</v>
       </c>
       <c r="C71">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
@@ -5901,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
   </sheetData>

--- a/input/stopcodon/stopcodon_table.xlsx
+++ b/input/stopcodon/stopcodon_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wen-Juan/Dropbox (Amherst College)/Amherst_postdoc/github/Haploidselection_and_dosagecompensation_in_Microbotryum/input/stopcodon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0449C725-AAAB-ED4B-B270-5ED4BB461CDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3706DFF9-7A69-6B4B-8897-9ECF89F09C18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="440" windowWidth="40140" windowHeight="17720" xr2:uid="{DCADF938-8ACE-9640-A5A8-5C036B92735A}"/>
   </bookViews>

--- a/input/stopcodon/stopcodon_table.xlsx
+++ b/input/stopcodon/stopcodon_table.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wen-Juan/Dropbox (Amherst College)/Amherst_postdoc/github/Haploidselection_and_dosagecompensation_in_Microbotryum/input/stopcodon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3706DFF9-7A69-6B4B-8897-9ECF89F09C18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7DCFD8-019C-7946-8F79-E934F91196C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="440" windowWidth="40140" windowHeight="17720" xr2:uid="{DCADF938-8ACE-9640-A5A8-5C036B92735A}"/>
+    <workbookView xWindow="820" yWindow="440" windowWidth="40140" windowHeight="22600" xr2:uid="{DCADF938-8ACE-9640-A5A8-5C036B92735A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4913,8 +4913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D226073A-C444-B648-83C1-00604B15CA14}">
   <dimension ref="B1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="W69" sqref="W69"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65:H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4996,7 +4996,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E11" si="0">C4/(C4+D4)</f>
+        <f t="shared" ref="E4:E10" si="0">C4/(C4+D4)</f>
         <v>0</v>
       </c>
       <c r="F4" s="1">
